--- a/excels/【Excel】準1級.xlsx
+++ b/excels/【Excel】準1級.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.13.36\課題回収\おくむら(Web1B)\012コウヨウ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B70B0B-0131-4B7A-ABC9-670CD7BD7169}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EA7170-5A2E-4C2E-981F-35894AA924B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" activeTab="1" xr2:uid="{100E11DB-56ED-40A3-A068-FCF8E3FEF8DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" activeTab="2" xr2:uid="{100E11DB-56ED-40A3-A068-FCF8E3FEF8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="準1-1解答例" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,15 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="sheet1委託販売手数料一覧表">'準1-1'!$A$11:$K$23</definedName>
+    <definedName name="sheet2商品別定価計算表">'準1-2'!$A$3:$H$6</definedName>
+    <definedName name="sheet2値引率表">'準1-2'!$M$9:$N$11</definedName>
+    <definedName name="sheet2得意先テーブル">'準1-2'!$M$3:$N$5</definedName>
+    <definedName name="sheet2得意先別利益額一覧表">'準1-2'!$A$11:$K$23</definedName>
     <definedName name="リース先別料金合計一覧表5">'[1]準1-5解答例'!$A$9:$L$21</definedName>
     <definedName name="依頼先別加工賃一覧表4">'[1]準1-4解答例'!$A$9:$L$17</definedName>
     <definedName name="委託販売手数料一覧表">'準1-1'!$A$11:$K$23</definedName>
     <definedName name="委託販売手数料一覧表1">'準1-1解答例'!$A$11:$K$23</definedName>
-    <definedName name="委託販売手数料一覧表コウヨウ">'準1-1'!$A$11:$K$23</definedName>
     <definedName name="請求金額一覧表3">'[1]準1-3解答例'!$A$9:$L$17</definedName>
     <definedName name="総支給額一覧表6">'[1]準1-6解答例'!$A$16:$L$25</definedName>
     <definedName name="得意先別利益額一覧表2">'[1]準1-2解答例'!$A$11:$K$23</definedName>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
   <si>
     <t>商品一覧表</t>
     <rPh sb="0" eb="5">
@@ -400,6 +404,56 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>E商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H商品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>得CO</t>
+  </si>
+  <si>
+    <t>得意先テーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値引率</t>
+    <rPh sb="0" eb="3">
+      <t>ネビキリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値引率表</t>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>得意先名</t>
+  </si>
+  <si>
+    <t>南四国物産</t>
+  </si>
 </sst>
 </file>
 
@@ -453,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -596,6 +650,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,12 +671,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,12 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -693,7 +747,37 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4090,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C1E84F-0252-442A-81D8-6BD37D51FD36}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4102,40 +4186,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M2">
@@ -4146,30 +4230,30 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1644</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>INT((D3-C3)*1.03)</f>
         <v>1649</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>1174</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>ROUNDUP(F3*1.28,-1)</f>
         <v>1510</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>ROUNDUP(IF(E3&gt;=2100,G3*0.91,G3*0.79),0)</f>
         <v>1193</v>
       </c>
@@ -4181,30 +4265,30 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2094</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E6" si="0">INT((D4-C4)*1.03)</f>
         <v>2117</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>963</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" ref="G4:G6" si="1">ROUNDUP(F4*1.28,-1)</f>
         <v>1240</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H6" si="2">ROUNDUP(IF(E4&gt;=2100,G4*0.91,G4*0.79),0)</f>
         <v>1129</v>
       </c>
@@ -4216,787 +4300,787 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>46</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1732</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>1736</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>1219</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>1570</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f t="shared" si="2"/>
         <v>1241</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>37</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2391</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>2424</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>851</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>1090</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
         <v>992</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <f>AVERAGE(C3:C6)</f>
         <v>41</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" ref="D8:H8" si="3">AVERAGE(D3:D6)</f>
         <v>1965.25</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="3"/>
         <v>1981.5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" si="3"/>
         <v>1051.75</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f t="shared" si="3"/>
         <v>1352.5</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f t="shared" si="3"/>
         <v>1138.75</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>103</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="5" t="str">
         <f t="shared" ref="B12:B23" si="4">VLOOKUP(A12,$M$2:$N$4,2,0)</f>
         <v>鈴木商会</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" ref="D12:D23" si="5">VLOOKUP($C12,$A$3:$H$6,2,0)</f>
         <v>商品C</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" ref="E12:E23" si="6">VLOOKUP($C12,$A$3:$H$6,8,0)</f>
         <v>1241</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>445</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>404</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f t="shared" ref="H12:H23" si="7">E12*G12</f>
         <v>501364</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" ref="I12:I23" si="8">INT(H12*8.9%)</f>
         <v>44621</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" ref="J12:J23" si="9">INT(G12/F12*100)</f>
         <v>90</v>
       </c>
-      <c r="K12" s="9" t="str">
+      <c r="K12" s="8" t="str">
         <f t="shared" ref="K12:K23" si="10">IF(AND(I12&gt;=65000,J12&gt;=93),"A",IF(OR(I12&gt;=65000,J12&gt;=93),"B","C"))</f>
         <v>C</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>103</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="5" t="str">
         <f t="shared" si="4"/>
         <v>鈴木商会</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品A</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="6"/>
         <v>1193</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>521</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>492</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" si="7"/>
         <v>586956</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="8"/>
         <v>52239</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="K13" s="9" t="str">
+      <c r="K13" s="8" t="str">
         <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>102</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="5" t="str">
         <f t="shared" si="4"/>
         <v>渡辺総業</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品A</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="6"/>
         <v>1193</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>547</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>521</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f t="shared" si="7"/>
         <v>621553</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="8"/>
         <v>55318</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="K14" s="9" t="str">
+      <c r="K14" s="8" t="str">
         <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>101</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="5" t="str">
         <f t="shared" si="4"/>
         <v>東海商事</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品A</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="6"/>
         <v>1193</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>586</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>538</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f t="shared" si="7"/>
         <v>641834</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="8"/>
         <v>57123</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="K15" s="9" t="str">
+      <c r="K15" s="8" t="str">
         <f t="shared" si="10"/>
         <v>C</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>101</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="5" t="str">
         <f t="shared" si="4"/>
         <v>東海商事</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品C</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="6"/>
         <v>1241</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>627</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>586</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" si="7"/>
         <v>727226</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="8"/>
         <v>64723</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="K16" s="9" t="str">
+      <c r="K16" s="8" t="str">
         <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>101</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="5" t="str">
         <f t="shared" si="4"/>
         <v>東海商事</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>12</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品B</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="6"/>
         <v>1129</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>643</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>614</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f t="shared" si="7"/>
         <v>693206</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="8"/>
         <v>61695</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="K17" s="9" t="str">
+      <c r="K17" s="8" t="str">
         <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>102</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="5" t="str">
         <f t="shared" si="4"/>
         <v>渡辺総業</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="str">
+      <c r="D18" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品C</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="6"/>
         <v>1241</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>664</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>629</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f t="shared" si="7"/>
         <v>780589</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="8"/>
         <v>69472</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="K18" s="9" t="str">
+      <c r="K18" s="8" t="str">
         <f t="shared" si="10"/>
         <v>A</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>102</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="5" t="str">
         <f t="shared" si="4"/>
         <v>渡辺総業</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>12</v>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品B</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="6"/>
         <v>1129</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>690</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>638</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f t="shared" si="7"/>
         <v>720302</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="8"/>
         <v>64106</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="K19" s="9" t="str">
+      <c r="K19" s="8" t="str">
         <f t="shared" si="10"/>
         <v>C</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>101</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="5" t="str">
         <f t="shared" si="4"/>
         <v>東海商事</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>14</v>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品D</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="6"/>
         <v>992</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>712</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>662</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f t="shared" si="7"/>
         <v>656704</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="8"/>
         <v>58446</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="K20" s="9" t="str">
+      <c r="K20" s="8" t="str">
         <f t="shared" si="10"/>
         <v>C</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>103</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" s="5" t="str">
         <f t="shared" si="4"/>
         <v>鈴木商会</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>12</v>
       </c>
-      <c r="D21" s="6" t="str">
+      <c r="D21" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品B</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="6"/>
         <v>1129</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>766</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>714</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="7"/>
         <v>806106</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="8"/>
         <v>71743</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="K21" s="9" t="str">
+      <c r="K21" s="8" t="str">
         <f t="shared" si="10"/>
         <v>A</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>103</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="5" t="str">
         <f t="shared" si="4"/>
         <v>鈴木商会</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>14</v>
       </c>
-      <c r="D22" s="6" t="str">
+      <c r="D22" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品D</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" si="6"/>
         <v>992</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>841</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>781</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="7"/>
         <v>774752</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="8"/>
         <v>68952</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="K22" s="9" t="str">
+      <c r="K22" s="8" t="str">
         <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>102</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" s="5" t="str">
         <f t="shared" si="4"/>
         <v>渡辺総業</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>14</v>
       </c>
-      <c r="D23" s="6" t="str">
+      <c r="D23" s="5" t="str">
         <f t="shared" si="5"/>
         <v>商品D</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="6"/>
         <v>992</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>869</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>813</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="7"/>
         <v>806496</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="8"/>
         <v>71778</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="K23" s="9" t="str">
+      <c r="K23" s="8" t="str">
         <f t="shared" si="10"/>
         <v>A</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11">
         <f>SUM(F12:F23)</f>
         <v>7911</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f t="shared" ref="G25:I25" si="11">SUM(G12:G23)</f>
         <v>7392</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <f t="shared" si="11"/>
         <v>8317088</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <f t="shared" si="11"/>
         <v>740216</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f>DSUM(委託販売手数料一覧表1,B$28,$E$28:$E$29)</f>
         <v>2400</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <f>DSUM(委託販売手数料一覧表1,C$28,$E$28:$E$29)</f>
         <v>241987</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <v>101</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <v>102</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <f>DSUM(委託販売手数料一覧表1,B$28,$F$28:$F$29)</f>
         <v>2601</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <f>DSUM(委託販売手数料一覧表1,C$28,$F$28:$F$29)</f>
         <v>260674</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <f>DSUM(委託販売手数料一覧表1,B$28,$G$28:$G$29)</f>
         <v>2391</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <f>DSUM(委託販売手数料一覧表1,C$28,$G$28:$G$29)</f>
         <v>237555</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5017,13 +5101,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9102ECCF-4D8F-495F-BF42-5D699A68BE0F}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
@@ -5034,880 +5118,895 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="21">
         <v>43</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>1644</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <f>INT((D3-C3)*1.03)</f>
         <v>1649</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <v>1174</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="21">
         <f>ROUNDUP(F3*1.28,-1)</f>
         <v>1510</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="22">
         <f>ROUNDUP(IF(E3&gt;=2100,G3*0.91,G3*0.79),0)</f>
         <v>1193</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>38</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>2094</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <f t="shared" ref="E4:E6" si="0">INT((D4-C4)*1.03)</f>
         <v>2117</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>963</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G6" si="1">ROUNDUP(F4*1.28,-1)</f>
         <v>1240</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <f t="shared" ref="H4:H6" si="2">ROUNDUP(IF(E4&gt;=2100,G4*0.91,G4*0.79),0)</f>
         <v>1129</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>101</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="21">
         <v>46</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>1732</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>1736</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>1219</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <f t="shared" si="1"/>
         <v>1570</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <f t="shared" si="2"/>
         <v>1241</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>102</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>37</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>2391</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>2424</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>851</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <f t="shared" si="1"/>
         <v>1090</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <f t="shared" si="2"/>
         <v>992</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>103</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <f>AVERAGE(C3:C6)</f>
         <v>41</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <f t="shared" ref="D8:H8" si="3">AVERAGE(D3:D6)</f>
         <v>1965.25</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="23">
         <f t="shared" si="3"/>
         <v>1981.5</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="23">
         <f t="shared" si="3"/>
         <v>1051.75</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <f t="shared" si="3"/>
         <v>1352.5</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <f t="shared" si="3"/>
         <v>1138.75</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>103</v>
       </c>
-      <c r="B12" s="6" t="str">
-        <f>VLOOKUP(A12,$M$4:$N$6,2,0)</f>
+      <c r="B12" s="5" t="str">
+        <f t="shared" ref="B12:B23" si="4">VLOOKUP(A12,$M$4:$N$6,2,0)</f>
         <v>鈴木商会</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="str">
-        <f>VLOOKUP(C12,$A$3:$H$6,2,0)</f>
+      <c r="D12" s="5" t="str">
+        <f t="shared" ref="D12:D23" si="5">VLOOKUP(C12,$A$3:$H$6,2,0)</f>
         <v>商品C</v>
       </c>
-      <c r="E12" s="24">
-        <f>VLOOKUP(C12,$A$3:$H$6,8,0)</f>
+      <c r="E12" s="21">
+        <f t="shared" ref="E12:E23" si="6">VLOOKUP(C12,$A$3:$H$6,8,0)</f>
         <v>1241</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="21">
         <v>445</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>404</v>
       </c>
-      <c r="H12" s="24">
-        <f>E12*G12</f>
+      <c r="H12" s="21">
+        <f t="shared" ref="H12:H23" si="7">E12*G12</f>
         <v>501364</v>
       </c>
-      <c r="I12" s="24">
-        <f>INT(H12*8.9%)</f>
+      <c r="I12" s="21">
+        <f t="shared" ref="I12:I23" si="8">INT(H12*8.9%)</f>
         <v>44621</v>
       </c>
-      <c r="J12" s="6">
-        <f>INT(G12/F12*100)</f>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12:J23" si="9">INT(G12/F12*100)</f>
         <v>90</v>
       </c>
-      <c r="K12" s="9" t="str">
-        <f>IF(AND(I12&gt;=65000,J12&gt;=93),"A",IF(OR(I12&gt;=65000,J12&gt;=93),"B","C"))</f>
+      <c r="K12" s="8" t="str">
+        <f t="shared" ref="K12:K23" si="10">IF(AND(I12&gt;=65000,J12&gt;=93),"A",IF(OR(I12&gt;=65000,J12&gt;=93),"B","C"))</f>
         <v>C</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>103</v>
       </c>
-      <c r="B13" s="6" t="str">
-        <f>VLOOKUP(A13,$M$4:$N$6,2,0)</f>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>鈴木商会</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="str">
-        <f>VLOOKUP(C13,$A$3:$H$6,2,0)</f>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品A</v>
       </c>
-      <c r="E13" s="24">
-        <f>VLOOKUP(C13,$A$3:$H$6,8,0)</f>
+      <c r="E13" s="21">
+        <f t="shared" si="6"/>
         <v>1193</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="21">
         <v>521</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="21">
         <v>492</v>
       </c>
-      <c r="H13" s="24">
-        <f>E13*G13</f>
+      <c r="H13" s="21">
+        <f t="shared" si="7"/>
         <v>586956</v>
       </c>
-      <c r="I13" s="24">
-        <f>INT(H13*8.9%)</f>
+      <c r="I13" s="21">
+        <f t="shared" si="8"/>
         <v>52239</v>
       </c>
-      <c r="J13" s="6">
-        <f>INT(G13/F13*100)</f>
+      <c r="J13" s="5">
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="K13" s="9" t="str">
-        <f>IF(AND(I13&gt;=65000,J13&gt;=93),"A",IF(OR(I13&gt;=65000,J13&gt;=93),"B","C"))</f>
+      <c r="K13" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>102</v>
       </c>
-      <c r="B14" s="6" t="str">
-        <f>VLOOKUP(A14,$M$4:$N$6,2,0)</f>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>渡辺総業</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="str">
-        <f>VLOOKUP(C14,$A$3:$H$6,2,0)</f>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品A</v>
       </c>
-      <c r="E14" s="24">
-        <f>VLOOKUP(C14,$A$3:$H$6,8,0)</f>
+      <c r="E14" s="21">
+        <f t="shared" si="6"/>
         <v>1193</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="21">
         <v>547</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <v>521</v>
       </c>
-      <c r="H14" s="24">
-        <f>E14*G14</f>
+      <c r="H14" s="21">
+        <f t="shared" si="7"/>
         <v>621553</v>
       </c>
-      <c r="I14" s="24">
-        <f>INT(H14*8.9%)</f>
+      <c r="I14" s="21">
+        <f t="shared" si="8"/>
         <v>55318</v>
       </c>
-      <c r="J14" s="6">
-        <f>INT(G14/F14*100)</f>
+      <c r="J14" s="5">
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="K14" s="9" t="str">
-        <f>IF(AND(I14&gt;=65000,J14&gt;=93),"A",IF(OR(I14&gt;=65000,J14&gt;=93),"B","C"))</f>
+      <c r="K14" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>101</v>
       </c>
-      <c r="B15" s="6" t="str">
-        <f>VLOOKUP(A15,$M$4:$N$6,2,0)</f>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>東海商事</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>11</v>
       </c>
-      <c r="D15" s="6" t="str">
-        <f>VLOOKUP(C15,$A$3:$H$6,2,0)</f>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品A</v>
       </c>
-      <c r="E15" s="24">
-        <f>VLOOKUP(C15,$A$3:$H$6,8,0)</f>
+      <c r="E15" s="21">
+        <f t="shared" si="6"/>
         <v>1193</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <v>586</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="21">
         <v>538</v>
       </c>
-      <c r="H15" s="24">
-        <f>E15*G15</f>
+      <c r="H15" s="21">
+        <f t="shared" si="7"/>
         <v>641834</v>
       </c>
-      <c r="I15" s="24">
-        <f>INT(H15*8.9%)</f>
+      <c r="I15" s="21">
+        <f t="shared" si="8"/>
         <v>57123</v>
       </c>
-      <c r="J15" s="6">
-        <f>INT(G15/F15*100)</f>
+      <c r="J15" s="5">
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="K15" s="9" t="str">
-        <f>IF(AND(I15&gt;=65000,J15&gt;=93),"A",IF(OR(I15&gt;=65000,J15&gt;=93),"B","C"))</f>
+      <c r="K15" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>101</v>
       </c>
-      <c r="B16" s="6" t="str">
-        <f>VLOOKUP(A16,$M$4:$N$6,2,0)</f>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>東海商事</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="str">
-        <f>VLOOKUP(C16,$A$3:$H$6,2,0)</f>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品C</v>
       </c>
-      <c r="E16" s="24">
-        <f>VLOOKUP(C16,$A$3:$H$6,8,0)</f>
+      <c r="E16" s="21">
+        <f t="shared" si="6"/>
         <v>1241</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="21">
         <v>627</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="21">
         <v>586</v>
       </c>
-      <c r="H16" s="24">
-        <f>E16*G16</f>
+      <c r="H16" s="21">
+        <f t="shared" si="7"/>
         <v>727226</v>
       </c>
-      <c r="I16" s="24">
-        <f>INT(H16*8.9%)</f>
+      <c r="I16" s="21">
+        <f t="shared" si="8"/>
         <v>64723</v>
       </c>
-      <c r="J16" s="6">
-        <f>INT(G16/F16*100)</f>
+      <c r="J16" s="5">
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="K16" s="9" t="str">
-        <f>IF(AND(I16&gt;=65000,J16&gt;=93),"A",IF(OR(I16&gt;=65000,J16&gt;=93),"B","C"))</f>
+      <c r="K16" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>101</v>
       </c>
-      <c r="B17" s="6" t="str">
-        <f>VLOOKUP(A17,$M$4:$N$6,2,0)</f>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>東海商事</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>12</v>
       </c>
-      <c r="D17" s="6" t="str">
-        <f>VLOOKUP(C17,$A$3:$H$6,2,0)</f>
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品B</v>
       </c>
-      <c r="E17" s="24">
-        <f>VLOOKUP(C17,$A$3:$H$6,8,0)</f>
+      <c r="E17" s="21">
+        <f t="shared" si="6"/>
         <v>1129</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <v>643</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="21">
         <v>614</v>
       </c>
-      <c r="H17" s="24">
-        <f>E17*G17</f>
+      <c r="H17" s="21">
+        <f t="shared" si="7"/>
         <v>693206</v>
       </c>
-      <c r="I17" s="24">
-        <f>INT(H17*8.9%)</f>
+      <c r="I17" s="21">
+        <f t="shared" si="8"/>
         <v>61695</v>
       </c>
-      <c r="J17" s="6">
-        <f>INT(G17/F17*100)</f>
+      <c r="J17" s="5">
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="K17" s="9" t="str">
-        <f>IF(AND(I17&gt;=65000,J17&gt;=93),"A",IF(OR(I17&gt;=65000,J17&gt;=93),"B","C"))</f>
+      <c r="K17" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>102</v>
       </c>
-      <c r="B18" s="6" t="str">
-        <f>VLOOKUP(A18,$M$4:$N$6,2,0)</f>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>渡辺総業</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="str">
-        <f>VLOOKUP(C18,$A$3:$H$6,2,0)</f>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品C</v>
       </c>
-      <c r="E18" s="24">
-        <f>VLOOKUP(C18,$A$3:$H$6,8,0)</f>
+      <c r="E18" s="21">
+        <f t="shared" si="6"/>
         <v>1241</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="21">
         <v>664</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="21">
         <v>629</v>
       </c>
-      <c r="H18" s="24">
-        <f>E18*G18</f>
+      <c r="H18" s="21">
+        <f t="shared" si="7"/>
         <v>780589</v>
       </c>
-      <c r="I18" s="24">
-        <f>INT(H18*8.9%)</f>
+      <c r="I18" s="21">
+        <f t="shared" si="8"/>
         <v>69472</v>
       </c>
-      <c r="J18" s="6">
-        <f>INT(G18/F18*100)</f>
+      <c r="J18" s="5">
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="K18" s="9" t="str">
-        <f>IF(AND(I18&gt;=65000,J18&gt;=93),"A",IF(OR(I18&gt;=65000,J18&gt;=93),"B","C"))</f>
+      <c r="K18" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>102</v>
       </c>
-      <c r="B19" s="6" t="str">
-        <f>VLOOKUP(A19,$M$4:$N$6,2,0)</f>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>渡辺総業</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>12</v>
       </c>
-      <c r="D19" s="6" t="str">
-        <f>VLOOKUP(C19,$A$3:$H$6,2,0)</f>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品B</v>
       </c>
-      <c r="E19" s="24">
-        <f>VLOOKUP(C19,$A$3:$H$6,8,0)</f>
+      <c r="E19" s="21">
+        <f t="shared" si="6"/>
         <v>1129</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="21">
         <v>690</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="21">
         <v>638</v>
       </c>
-      <c r="H19" s="24">
-        <f>E19*G19</f>
+      <c r="H19" s="21">
+        <f t="shared" si="7"/>
         <v>720302</v>
       </c>
-      <c r="I19" s="24">
-        <f>INT(H19*8.9%)</f>
+      <c r="I19" s="21">
+        <f t="shared" si="8"/>
         <v>64106</v>
       </c>
-      <c r="J19" s="6">
-        <f>INT(G19/F19*100)</f>
+      <c r="J19" s="5">
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="K19" s="9" t="str">
-        <f>IF(AND(I19&gt;=65000,J19&gt;=93),"A",IF(OR(I19&gt;=65000,J19&gt;=93),"B","C"))</f>
+      <c r="K19" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>101</v>
       </c>
-      <c r="B20" s="6" t="str">
-        <f>VLOOKUP(A20,$M$4:$N$6,2,0)</f>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>東海商事</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>14</v>
       </c>
-      <c r="D20" s="6" t="str">
-        <f>VLOOKUP(C20,$A$3:$H$6,2,0)</f>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品D</v>
       </c>
-      <c r="E20" s="24">
-        <f>VLOOKUP(C20,$A$3:$H$6,8,0)</f>
+      <c r="E20" s="21">
+        <f t="shared" si="6"/>
         <v>992</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="21">
         <v>712</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="21">
         <v>662</v>
       </c>
-      <c r="H20" s="24">
-        <f>E20*G20</f>
+      <c r="H20" s="21">
+        <f t="shared" si="7"/>
         <v>656704</v>
       </c>
-      <c r="I20" s="24">
-        <f>INT(H20*8.9%)</f>
+      <c r="I20" s="21">
+        <f t="shared" si="8"/>
         <v>58446</v>
       </c>
-      <c r="J20" s="6">
-        <f>INT(G20/F20*100)</f>
+      <c r="J20" s="5">
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="K20" s="9" t="str">
-        <f>IF(AND(I20&gt;=65000,J20&gt;=93),"A",IF(OR(I20&gt;=65000,J20&gt;=93),"B","C"))</f>
+      <c r="K20" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>103</v>
       </c>
-      <c r="B21" s="6" t="str">
-        <f>VLOOKUP(A21,$M$4:$N$6,2,0)</f>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>鈴木商会</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>12</v>
       </c>
-      <c r="D21" s="6" t="str">
-        <f>VLOOKUP(C21,$A$3:$H$6,2,0)</f>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品B</v>
       </c>
-      <c r="E21" s="24">
-        <f>VLOOKUP(C21,$A$3:$H$6,8,0)</f>
+      <c r="E21" s="21">
+        <f t="shared" si="6"/>
         <v>1129</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="21">
         <v>766</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="21">
         <v>714</v>
       </c>
-      <c r="H21" s="24">
-        <f>E21*G21</f>
+      <c r="H21" s="21">
+        <f t="shared" si="7"/>
         <v>806106</v>
       </c>
-      <c r="I21" s="24">
-        <f>INT(H21*8.9%)</f>
+      <c r="I21" s="21">
+        <f t="shared" si="8"/>
         <v>71743</v>
       </c>
-      <c r="J21" s="6">
-        <f>INT(G21/F21*100)</f>
+      <c r="J21" s="5">
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="K21" s="9" t="str">
-        <f>IF(AND(I21&gt;=65000,J21&gt;=93),"A",IF(OR(I21&gt;=65000,J21&gt;=93),"B","C"))</f>
+      <c r="K21" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>103</v>
       </c>
-      <c r="B22" s="6" t="str">
-        <f>VLOOKUP(A22,$M$4:$N$6,2,0)</f>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>鈴木商会</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>14</v>
       </c>
-      <c r="D22" s="6" t="str">
-        <f>VLOOKUP(C22,$A$3:$H$6,2,0)</f>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品D</v>
       </c>
-      <c r="E22" s="24">
-        <f>VLOOKUP(C22,$A$3:$H$6,8,0)</f>
+      <c r="E22" s="21">
+        <f t="shared" si="6"/>
         <v>992</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="21">
         <v>841</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="21">
         <v>781</v>
       </c>
-      <c r="H22" s="24">
-        <f>E22*G22</f>
+      <c r="H22" s="21">
+        <f t="shared" si="7"/>
         <v>774752</v>
       </c>
-      <c r="I22" s="24">
-        <f>INT(H22*8.9%)</f>
+      <c r="I22" s="21">
+        <f t="shared" si="8"/>
         <v>68952</v>
       </c>
-      <c r="J22" s="6">
-        <f>INT(G22/F22*100)</f>
+      <c r="J22" s="5">
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="K22" s="9" t="str">
-        <f>IF(AND(I22&gt;=65000,J22&gt;=93),"A",IF(OR(I22&gt;=65000,J22&gt;=93),"B","C"))</f>
+      <c r="K22" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>102</v>
       </c>
-      <c r="B23" s="6" t="str">
-        <f>VLOOKUP(A23,$M$4:$N$6,2,0)</f>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>渡辺総業</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>14</v>
       </c>
-      <c r="D23" s="6" t="str">
-        <f>VLOOKUP(C23,$A$3:$H$6,2,0)</f>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>商品D</v>
       </c>
-      <c r="E23" s="24">
-        <f>VLOOKUP(C23,$A$3:$H$6,8,0)</f>
+      <c r="E23" s="21">
+        <f t="shared" si="6"/>
         <v>992</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="21">
         <v>869</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="21">
         <v>813</v>
       </c>
-      <c r="H23" s="24">
-        <f>E23*G23</f>
+      <c r="H23" s="21">
+        <f t="shared" si="7"/>
         <v>806496</v>
       </c>
-      <c r="I23" s="24">
-        <f>INT(H23*8.9%)</f>
+      <c r="I23" s="21">
+        <f t="shared" si="8"/>
         <v>71778</v>
       </c>
-      <c r="J23" s="6">
-        <f>INT(G23/F23*100)</f>
+      <c r="J23" s="5">
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="K23" s="9" t="str">
-        <f>IF(AND(I23&gt;=65000,J23&gt;=93),"A",IF(OR(I23&gt;=65000,J23&gt;=93),"B","C"))</f>
+      <c r="K23" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="26">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="23">
         <f>SUM(F12:F23)</f>
         <v>7911</v>
       </c>
-      <c r="G25" s="26">
-        <f t="shared" ref="G25:I25" si="4">SUM(G12:G23)</f>
+      <c r="G25" s="23">
+        <f t="shared" ref="G25:I25" si="11">SUM(G12:G23)</f>
         <v>7392</v>
       </c>
-      <c r="H25" s="26">
-        <f t="shared" si="4"/>
+      <c r="H25" s="23">
+        <f t="shared" si="11"/>
         <v>8317088</v>
       </c>
-      <c r="I25" s="26">
-        <f t="shared" si="4"/>
+      <c r="I25" s="23">
+        <f t="shared" si="11"/>
         <v>740216</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="28" t="e">
-        <f>DSUM(委託販売手数料一覧表コウヨウ,B$28,)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="E29" t="s">
+      <c r="B29" s="6">
+        <f>DSUM(sheet1委託販売手数料一覧表,B$28,$E$28:$E$29)</f>
+        <v>2400</v>
+      </c>
+      <c r="C29" s="7">
+        <f>DSUM(sheet1委託販売手数料一覧表,C$28,$E$28:$E$29)</f>
+        <v>241987</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="B30" s="6">
+        <f>DSUM(sheet1委託販売手数料一覧表,B$28,$F$28:$F$29)</f>
+        <v>2601</v>
+      </c>
+      <c r="C30" s="7">
+        <f>DSUM(sheet1委託販売手数料一覧表,C$28,$F$28:$F$29)</f>
+        <v>260674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="11">
+        <f>DSUM(sheet1委託販売手数料一覧表,B$28,$G$28:$G$29)</f>
+        <v>2391</v>
+      </c>
+      <c r="C31" s="12">
+        <f>DSUM(sheet1委託販売手数料一覧表,C$28,$G$28:$G$29)</f>
+        <v>237555</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A12:K23">
@@ -5929,282 +6028,964 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CD3C1-72CC-43D4-8F13-4E39D3243E9A}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.75" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="M1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2135</v>
+      </c>
+      <c r="D3" s="21">
+        <v>5814000</v>
+      </c>
+      <c r="E3" s="21">
+        <f>IF(D3&lt;6000000,D3*4.8%,D3*5.7%)</f>
+        <v>279072</v>
+      </c>
+      <c r="F3" s="21">
+        <f>ROUNDUP((D3+E3)/C3, 0)</f>
+        <v>2854</v>
+      </c>
+      <c r="G3" s="28">
+        <f>IF(AND(C3&gt;=2100,F3&gt;=2800),26%,27%)</f>
+        <v>0.26</v>
+      </c>
+      <c r="H3" s="22">
+        <f>ROUNDDOWN(F3*(1+G3), -1)</f>
+        <v>3590</v>
+      </c>
+      <c r="M3" s="4">
         <v>101</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1948</v>
+      </c>
+      <c r="D4" s="21">
+        <v>5781000</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:E6" si="0">IF(D4&lt;6000000,D4*4.8%,D4*5.7%)</f>
+        <v>277488</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F6" si="1">ROUNDUP((D4+E4)/C4, 0)</f>
+        <v>3111</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" ref="G4:G6" si="2">IF(AND(C4&gt;=2100,F4&gt;=2800),26%,27%)</f>
+        <v>0.27</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" ref="H4:H6" si="3">ROUNDDOWN(F4*(1+G4), -1)</f>
+        <v>3950</v>
+      </c>
+      <c r="M4" s="4">
+        <v>102</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2208</v>
+      </c>
+      <c r="D5" s="21">
+        <v>6137000</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>349809</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="1"/>
+        <v>2938</v>
+      </c>
+      <c r="G5" s="28">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="3"/>
+        <v>3700</v>
+      </c>
+      <c r="M5" s="9">
+        <v>103</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2319</v>
+      </c>
+      <c r="D6" s="21">
+        <v>6053000</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>345021</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="1"/>
+        <v>2759</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="M7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="23">
+        <f>SUM(C3:C6)</f>
+        <v>8610</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" ref="D8:E8" si="4">SUM(D3:D6)</f>
+        <v>23785000</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="4"/>
+        <v>1251390</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="M8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="26">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="M10" s="4">
+        <v>2400000</v>
+      </c>
+      <c r="N10" s="26">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="9">
+        <v>2700000</v>
+      </c>
+      <c r="N11" s="27">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>101</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" ref="B12:B23" si="5">VLOOKUP(A12,sheet2得意先テーブル,2,0)</f>
+        <v>南四国物産</v>
+      </c>
+      <c r="C12" s="5">
         <v>11</v>
       </c>
-      <c r="M3">
+      <c r="D12" s="5" t="str">
+        <f>VLOOKUP(C12,sheet2商品別定価計算表,2,0)</f>
+        <v>E商品</v>
+      </c>
+      <c r="E12" s="5">
+        <v>668</v>
+      </c>
+      <c r="F12" s="21">
+        <f>VLOOKUP(C12,sheet2商品別定価計算表,8,0)*E12</f>
+        <v>2398120</v>
+      </c>
+      <c r="G12" s="30">
+        <f>VLOOKUP(F12,sheet2値引率表,2,1)</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H12" s="21">
+        <f>ROUNDUP(F12*G12,0)</f>
+        <v>163073</v>
+      </c>
+      <c r="I12" s="32">
+        <f>F12-H12</f>
+        <v>2235047</v>
+      </c>
+      <c r="J12" s="21">
+        <f>I12-VLOOKUP(C12,sheet2商品別定価計算表,6,0)*E12</f>
+        <v>328575</v>
+      </c>
+      <c r="K12" s="8" t="str">
+        <f>IF(AND(C12&lt;&gt;12,J12&gt;=330000),"良好","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>101</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>南四国物産</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>VLOOKUP(C13,sheet2商品別定価計算表,2,0)</f>
+        <v>F商品</v>
+      </c>
+      <c r="E13" s="5">
+        <v>785</v>
+      </c>
+      <c r="F13" s="21">
+        <f>VLOOKUP(C13,sheet2商品別定価計算表,8,0)*E13</f>
+        <v>3100750</v>
+      </c>
+      <c r="G13" s="30">
+        <f>VLOOKUP(F13,sheet2値引率表,2,1)</f>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" ref="H13:H23" si="6">ROUNDUP(F13*G13,0)</f>
+        <v>266665</v>
+      </c>
+      <c r="I13" s="32">
+        <f t="shared" ref="I13:I23" si="7">F13-H13</f>
+        <v>2834085</v>
+      </c>
+      <c r="J13" s="21">
+        <f>I13-VLOOKUP(C13,sheet2商品別定価計算表,6,0)*E13</f>
+        <v>391950</v>
+      </c>
+      <c r="K13" s="8" t="str">
+        <f t="shared" ref="K13:K23" si="8">IF(AND(C13&lt;&gt;12,J13&gt;=330000),"良好","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>南四国物産</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>VLOOKUP(C14,sheet2商品別定価計算表,2,0)</f>
+        <v>G商品</v>
+      </c>
+      <c r="E14" s="5">
+        <v>654</v>
+      </c>
+      <c r="F14" s="21">
+        <f>VLOOKUP(C14,sheet2商品別定価計算表,8,0)*E14</f>
+        <v>2419800</v>
+      </c>
+      <c r="G14" s="30">
+        <f>VLOOKUP(F14,sheet2値引率表,2,1)</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="6"/>
+        <v>186325</v>
+      </c>
+      <c r="I14" s="32">
+        <f t="shared" si="7"/>
+        <v>2233475</v>
+      </c>
+      <c r="J14" s="21">
+        <f>I14-VLOOKUP(C14,sheet2商品別定価計算表,6,0)*E14</f>
+        <v>312023</v>
+      </c>
+      <c r="K14" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>101</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>南四国物産</v>
+      </c>
+      <c r="C15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f>VLOOKUP(C15,sheet2商品別定価計算表,2,0)</f>
+        <v>H商品</v>
+      </c>
+      <c r="E15" s="5">
+        <v>686</v>
+      </c>
+      <c r="F15" s="21">
+        <f>VLOOKUP(C15,sheet2商品別定価計算表,8,0)*E15</f>
+        <v>2401000</v>
+      </c>
+      <c r="G15" s="30">
+        <f>VLOOKUP(F15,sheet2値引率表,2,1)</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="6"/>
+        <v>184877</v>
+      </c>
+      <c r="I15" s="32">
+        <f t="shared" si="7"/>
+        <v>2216123</v>
+      </c>
+      <c r="J15" s="21">
+        <f>I15-VLOOKUP(C15,sheet2商品別定価計算表,6,0)*E15</f>
+        <v>323449</v>
+      </c>
+      <c r="K15" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
         <v>102</v>
       </c>
-      <c r="N3" t="s">
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>大八木総業</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>VLOOKUP(C16,sheet2商品別定価計算表,2,0)</f>
+        <v>E商品</v>
+      </c>
+      <c r="E16" s="5">
+        <v>847</v>
+      </c>
+      <c r="F16" s="21">
+        <f>VLOOKUP(C16,sheet2商品別定価計算表,8,0)*E16</f>
+        <v>3040730</v>
+      </c>
+      <c r="G16" s="30">
+        <f>VLOOKUP(F16,sheet2値引率表,2,1)</f>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="6"/>
+        <v>261503</v>
+      </c>
+      <c r="I16" s="32">
+        <f t="shared" si="7"/>
+        <v>2779227</v>
+      </c>
+      <c r="J16" s="21">
+        <f>I16-VLOOKUP(C16,sheet2商品別定価計算表,6,0)*E16</f>
+        <v>361889</v>
+      </c>
+      <c r="K16" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>102</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>大八木総業</v>
+      </c>
+      <c r="C17" s="5">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>VLOOKUP(C17,sheet2商品別定価計算表,2,0)</f>
+        <v>F商品</v>
+      </c>
+      <c r="E17" s="5">
+        <v>524</v>
+      </c>
+      <c r="F17" s="21">
+        <f>VLOOKUP(C17,sheet2商品別定価計算表,8,0)*E17</f>
+        <v>2069800</v>
+      </c>
+      <c r="G17" s="30">
+        <f>VLOOKUP(F17,sheet2値引率表,2,1)</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="6"/>
+        <v>140747</v>
+      </c>
+      <c r="I17" s="32">
+        <f t="shared" si="7"/>
+        <v>1929053</v>
+      </c>
+      <c r="J17" s="21">
+        <f>I17-VLOOKUP(C17,sheet2商品別定価計算表,6,0)*E17</f>
+        <v>298889</v>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>102</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>大八木総業</v>
+      </c>
+      <c r="C18" s="5">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>VLOOKUP(C18,sheet2商品別定価計算表,2,0)</f>
+        <v>G商品</v>
+      </c>
+      <c r="E18" s="5">
+        <v>694</v>
+      </c>
+      <c r="F18" s="21">
+        <f>VLOOKUP(C18,sheet2商品別定価計算表,8,0)*E18</f>
+        <v>2567800</v>
+      </c>
+      <c r="G18" s="30">
+        <f>VLOOKUP(F18,sheet2値引率表,2,1)</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="6"/>
+        <v>197721</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" si="7"/>
+        <v>2370079</v>
+      </c>
+      <c r="J18" s="21">
+        <f>I18-VLOOKUP(C18,sheet2商品別定価計算表,6,0)*E18</f>
+        <v>331107</v>
+      </c>
+      <c r="K18" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>102</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>大八木総業</v>
+      </c>
+      <c r="C19" s="5">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f>VLOOKUP(C19,sheet2商品別定価計算表,2,0)</f>
+        <v>H商品</v>
+      </c>
+      <c r="E19" s="5">
+        <v>775</v>
+      </c>
+      <c r="F19" s="21">
+        <f>VLOOKUP(C19,sheet2商品別定価計算表,8,0)*E19</f>
+        <v>2712500</v>
+      </c>
+      <c r="G19" s="30">
+        <f>VLOOKUP(F19,sheet2値引率表,2,1)</f>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="6"/>
+        <v>233275</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" si="7"/>
+        <v>2479225</v>
+      </c>
+      <c r="J19" s="21">
+        <f>I19-VLOOKUP(C19,sheet2商品別定価計算表,6,0)*E19</f>
+        <v>341000</v>
+      </c>
+      <c r="K19" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>103</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>ＪＡＫ商事</v>
+      </c>
+      <c r="C20" s="5">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>VLOOKUP(C20,sheet2商品別定価計算表,2,0)</f>
+        <v>E商品</v>
+      </c>
+      <c r="E20" s="5">
+        <v>571</v>
+      </c>
+      <c r="F20" s="21">
+        <f>VLOOKUP(C20,sheet2商品別定価計算表,8,0)*E20</f>
+        <v>2049890</v>
+      </c>
+      <c r="G20" s="30">
+        <f>VLOOKUP(F20,sheet2値引率表,2,1)</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="6"/>
+        <v>139393</v>
+      </c>
+      <c r="I20" s="32">
+        <f t="shared" si="7"/>
+        <v>1910497</v>
+      </c>
+      <c r="J20" s="21">
+        <f>I20-VLOOKUP(C20,sheet2商品別定価計算表,6,0)*E20</f>
+        <v>280863</v>
+      </c>
+      <c r="K20" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>103</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>ＪＡＫ商事</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>VLOOKUP(C21,sheet2商品別定価計算表,2,0)</f>
+        <v>F商品</v>
+      </c>
+      <c r="E21" s="5">
+        <v>639</v>
+      </c>
+      <c r="F21" s="21">
+        <f>VLOOKUP(C21,sheet2商品別定価計算表,8,0)*E21</f>
+        <v>2524050</v>
+      </c>
+      <c r="G21" s="30">
+        <f>VLOOKUP(F21,sheet2値引率表,2,1)</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="6"/>
+        <v>194352</v>
+      </c>
+      <c r="I21" s="32">
+        <f t="shared" si="7"/>
+        <v>2329698</v>
+      </c>
+      <c r="J21" s="21">
+        <f>I21-VLOOKUP(C21,sheet2商品別定価計算表,6,0)*E21</f>
+        <v>341769</v>
+      </c>
+      <c r="K21" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>103</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>ＪＡＫ商事</v>
+      </c>
+      <c r="C22" s="5">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>VLOOKUP(C22,sheet2商品別定価計算表,2,0)</f>
+        <v>G商品</v>
+      </c>
+      <c r="E22" s="5">
+        <v>824</v>
+      </c>
+      <c r="F22" s="21">
+        <f>VLOOKUP(C22,sheet2商品別定価計算表,8,0)*E22</f>
+        <v>3048800</v>
+      </c>
+      <c r="G22" s="30">
+        <f>VLOOKUP(F22,sheet2値引率表,2,1)</f>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="6"/>
+        <v>262197</v>
+      </c>
+      <c r="I22" s="32">
+        <f t="shared" si="7"/>
+        <v>2786603</v>
+      </c>
+      <c r="J22" s="21">
+        <f>I22-VLOOKUP(C22,sheet2商品別定価計算表,6,0)*E22</f>
+        <v>365691</v>
+      </c>
+      <c r="K22" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>103</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>ＪＡＫ商事</v>
+      </c>
+      <c r="C23" s="5">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>VLOOKUP(C23,sheet2商品別定価計算表,2,0)</f>
+        <v>H商品</v>
+      </c>
+      <c r="E23" s="5">
+        <v>803</v>
+      </c>
+      <c r="F23" s="21">
+        <f>VLOOKUP(C23,sheet2商品別定価計算表,8,0)*E23</f>
+        <v>2810500</v>
+      </c>
+      <c r="G23" s="30">
+        <f>VLOOKUP(F23,sheet2値引率表,2,1)</f>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="6"/>
+        <v>241703</v>
+      </c>
+      <c r="I23" s="32">
+        <f t="shared" si="7"/>
+        <v>2568797</v>
+      </c>
+      <c r="J23" s="21">
+        <f>I23-VLOOKUP(C23,sheet2商品別定価計算表,6,0)*E23</f>
+        <v>353320</v>
+      </c>
+      <c r="K23" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>良好</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="33">
+        <f>SUM(E12:E23)</f>
+        <v>8470</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" ref="F25:J25" si="9">SUM(F12:F23)</f>
+        <v>31143740</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33">
+        <f t="shared" si="9"/>
+        <v>2471831</v>
+      </c>
+      <c r="I25" s="33">
+        <f t="shared" si="9"/>
+        <v>28671909</v>
+      </c>
+      <c r="J25" s="33">
+        <f t="shared" si="9"/>
+        <v>4030525</v>
+      </c>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="21">
+        <f>DSUM(sheet2得意先別利益額一覧表,B$28,$F$28:$F$29)</f>
+        <v>2793</v>
+      </c>
+      <c r="C29" s="22">
+        <f>DSUM(sheet2得意先別利益額一覧表,C$28,$F$28:$F$29)</f>
+        <v>1355997</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>103</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="H29" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="20">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="M7">
-        <v>2400000</v>
-      </c>
-      <c r="N7" s="20">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>2700000</v>
-      </c>
-      <c r="N8" s="20">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>101</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>101</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>101</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>101</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>102</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>102</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>102</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>102</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>103</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>103</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>103</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>103</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="B30" s="21">
+        <f>DSUM(sheet2得意先別利益額一覧表,B$28,$G$28:$G$29)</f>
+        <v>2840</v>
+      </c>
+      <c r="C30" s="22">
+        <f>DSUM(sheet2得意先別利益額一覧表,C$28,$G$28:$G$29)</f>
+        <v>1332885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="B31" s="33">
+        <f>DSUM(sheet2得意先別利益額一覧表,B$28,$H$28:$H$29)</f>
+        <v>2837</v>
+      </c>
+      <c r="C31" s="35">
+        <f>DSUM(sheet2得意先別利益額一覧表,C$28,$H$28:$H$29)</f>
+        <v>1341643</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
